--- a/cp1/Andrievich_fb-92_cp1/bigram_frequency_with_whitespaces.xlsx
+++ b/cp1/Andrievich_fb-92_cp1/bigram_frequency_with_whitespaces.xlsx
@@ -602,82 +602,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.266309004723333e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.0005557689520730182</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004867480165402197</v>
+        <v>0.00246789554920525</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0009018934133640625</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00238921108434253</v>
+        <v>0.002238552918349802</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004953467196715296</v>
+        <v>0.001103095844114547</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006680885236487368</v>
+        <v>0.001087618734056818</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004908938198356727</v>
+        <v>0.00387349854444815</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.0002926580810916147</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.0005768741021517404</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007473194310729492</v>
+        <v>0.004256205265875646</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007267439628658863</v>
+        <v>0.008640448442228874</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002421456221084941</v>
+        <v>0.003103864071577413</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003622203694064284</v>
+        <v>0.005127144459124249</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.236123012070739e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.0008653111532276106</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001134721716792499</v>
+        <v>0.004363138026274505</v>
       </c>
       <c r="S2" t="n">
-        <v>0.008047464841284831</v>
+        <v>0.004029676655030694</v>
       </c>
       <c r="T2" t="n">
-        <v>0.004887441440528452</v>
+        <v>0.004899208838274049</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7.597854028339995e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.0001871323306980036</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.001125608004198518</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7.175751026765552e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.0009215915534375365</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.0007907396229494588</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.0003419034312752998</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-05</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.003576139213003696</v>
+        <v>0.0007330522127342847</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.002120364077908958</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -705,97 +705,97 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.0009539527835582439</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.110515007872221e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.829113006822592e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002535081941034393</v>
+        <v>0.002318752488648947</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001134721716792499</v>
+        <v>0.000659887692461381</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.0001589921305930406</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.0005684320421202515</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.502432016794072e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.0003165772511808331</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002452165875125334</v>
+        <v>0.001940266797237195</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.00107073461399384</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001163895888130872</v>
+        <v>8.160658030439254e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.001215656644534399</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>5.62804002099259e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.0001294449204828295</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.00364062948648852</v>
+        <v>0.002742262500228639</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.0001786902706665147</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.688412006297777e-05</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.0003236123012070739</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -808,88 +808,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007250549318936647</v>
+        <v>0.006294962763480211</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.0001111537904146036</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.969814007347406e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0002701459210076443</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004948860748609236</v>
+        <v>0.005621004970966349</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.0004136609415429553</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001197676507575304</v>
+        <v>0.003523153053141361</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.0002321566508659443</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001246811954039932</v>
+        <v>0.0005853161621832293</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.0001167818304355962</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001197676507575304</v>
+        <v>0.0008807882632853402</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01093570780378374</v>
+        <v>0.006304811833516948</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.0002166795408082147</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001257560332954069</v>
+        <v>0.0006120493522829441</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001202282955681363</v>
+        <v>0.002120364077908958</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.0002884370510758702</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0006514456324298922</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3.939628014694813e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>3.658226013645183e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.0001083397704041073</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.001239134540529834</v>
+        <v>0.0009539527835582439</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.688412006297777e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.001142399130302598</v>
+        <v>0.002610003559735313</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.0004840114418053627</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>0.0002560758209551628</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -911,64 +911,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004908938198356727</v>
+        <v>0.002138655207977184</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001317444158332834</v>
+        <v>0.0009018934133640625</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0004797904117896183</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.00063034048235117</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>7.457153027815181e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.001522384825678495</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.0003897417714537368</v>
       </c>
       <c r="P5" t="n">
-        <v>0.009997527872849748</v>
+        <v>0.007613331138397725</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.001280379104775814</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>8.442060031488884e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.110515007872221e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.0004826044318001145</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>4.924535018368516e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1014,97 +1014,97 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007252084801638668</v>
+        <v>0.004191482805634231</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.0009159635134165439</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006737698096462095</v>
+        <v>0.00385802143439042</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5.205937019418145e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>9.849070036737032e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.001983884107399888</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.0003011001411231035</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001251418402145991</v>
+        <v>0.0004206959915691961</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.0001294449204828295</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.00192901071719521</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.003258635172154709</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001216102299999539</v>
+        <v>0.0001013047203778666</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.000965208863600229</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001246811954039932</v>
+        <v>0.0003573805413330294</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.0001983884107399888</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.001457662365437081</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.376824012595554e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.0002110515007872221</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001265237746464167</v>
+        <v>6.472246024141477e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.0001603991405982888</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.000486825461815859</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.0005810951321674849</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>9.849070036737032e-06</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.0004122539315377072</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -1117,82 +1117,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.0001308519304880777</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.0008624971332171143</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001257560332954069</v>
+        <v>0.00208800284778825</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003749648758331913</v>
+        <v>0.002936429880952884</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006094330844315874</v>
+        <v>0.002812613000491047</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001151612026514715</v>
+        <v>0.001291635184817799</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.0007597854028339996</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001176179749747029</v>
+        <v>0.001384497845164177</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.0001997954207452369</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006035982501639127</v>
+        <v>0.001855846196922306</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004836770511361804</v>
+        <v>0.001436557215358359</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006072834086487598</v>
+        <v>0.005929140162115693</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002452165875125334</v>
+        <v>0.003649783953613694</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007989116498608085</v>
+        <v>0.006264008543364752</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.0001941673807242443</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001194605542171265</v>
+        <v>0.001186109434424188</v>
       </c>
       <c r="R7" t="n">
-        <v>0.003611455315150147</v>
+        <v>0.006483502104183463</v>
       </c>
       <c r="S7" t="n">
-        <v>0.003626810142170343</v>
+        <v>0.004067665925172394</v>
       </c>
       <c r="T7" t="n">
-        <v>0.007385671796714374</v>
+        <v>0.005191866919365663</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0001603991405982888</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.0001181888404408444</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001228386161615696</v>
+        <v>0.0003967768214799775</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.0003306473512333146</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.001062292553962351</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.0006514456324298922</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.0005796881221622367</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.0001786902706665147</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.000171655220640274</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1220,64 +1220,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001209960369191461</v>
+        <v>0.001318368374917514</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.39191700892185e-05</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005512382900250437</v>
+        <v>0.0007175751026765551</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.00296175606104735</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>9.849070036737032e-06</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00121149585189348</v>
+        <v>0.001131236044219511</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0001407010005248147</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>4.080329015219627e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>8.442060031488884e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001168502336236931</v>
+        <v>0.00063034048235117</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>5.34663801994296e-05</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.110515007872221e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.0001857253206927554</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>3.517525013120368e-05</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1.829113006822592e-05</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1323,64 +1323,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003669803657826893</v>
+        <v>0.005469047890399549</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002535081941034393</v>
+        <v>0.0001702482106350258</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001251418402145991</v>
+        <v>0.001090432754067314</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.0002729599410181406</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.0008639041432223624</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.0006289334723459218</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001209960369191461</v>
+        <v>8.723462032538513e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001256024850252049</v>
+        <v>8.723462032538513e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00238614011893849</v>
+        <v>0.0004910464918316034</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.0001125608004198518</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001134721716792499</v>
+        <v>0.0003447174512857961</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.0002349706708764406</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003625274659468324</v>
+        <v>0.001381683825153681</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002490552942675824</v>
+        <v>0.0006486316124193959</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>3.939628014694813e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.0002588898409656591</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.266309004723333e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001186928128661167</v>
+        <v>0.0004249170215849405</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1392,28 +1392,28 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-05</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.001220708748105598</v>
+        <v>0.000382706721427496</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.001226850678913677</v>
+        <v>0.0001519570805667999</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.0001997954207452369</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1426,82 +1426,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.000229342630855448</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.0005628040020992589</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002533546458332374</v>
+        <v>0.002761960640302113</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00117157330164097</v>
+        <v>0.0004924535018368516</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.001485802565542044</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006125040498356266</v>
+        <v>0.001654643766171821</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0002476337609236739</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00744094917398708</v>
+        <v>0.002193528598181862</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0004826044318001145</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002439882013509177</v>
+        <v>0.001620875526045866</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00857259992537554</v>
+        <v>0.002676133029981976</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004736964135730529</v>
+        <v>0.006138784652897667</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008652445025880562</v>
+        <v>0.002535432029457161</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006009879295704794</v>
+        <v>0.003240344042086483</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.0004038118715062183</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.0002968791111073591</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001176179749747029</v>
+        <v>0.001107316874130292</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001186928128661167</v>
+        <v>0.002905475660837424</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001197676507575304</v>
+        <v>0.004090178085256364</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0001210028604513407</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>7.73855502886481e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>0.003614526280554187</v>
+        <v>0.001440778245374103</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001202282955681363</v>
+        <v>0.0009722439136264697</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001209960369191461</v>
+        <v>0.001712331176386995</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.001283663538888403</v>
+        <v>0.000496674531852596</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.0001969814007347406</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1510,13 +1510,13 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.001236063575125794</v>
+        <v>0.0002448197409131776</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.00412584202032672</v>
+        <v>0.0009919420536999438</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1532,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-05</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.0001013047203778666</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1559,52 +1559,52 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.0001308519304880777</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.547711005772962e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.939628014694813e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.0003855207414379924</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001197676507575304</v>
+        <v>0.0003714506413855109</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.0003869277514432405</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.301359030964069e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.0001660271806192814</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001222244230807618</v>
+        <v>0.000171655220640274</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.829113006822592e-05</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-05</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1632,79 +1632,79 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.008541890271335149</v>
+        <v>0.007082888366419174</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.0005402918420152886</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.0008667181632328587</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4.783834017843701e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.547711005772962e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.006083582465401736</v>
+        <v>0.002887184530769198</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2.251216008397036e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0008076237430124366</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001148541061110676</v>
+        <v>0.0006838068625505996</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01127351399822805</v>
+        <v>0.008418140861399666</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.002430669117297059</v>
+        <v>0.002106293977856477</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.0001421080105300629</v>
       </c>
       <c r="T12" t="n">
-        <v>0.002297082122221352</v>
+        <v>0.0007006909826135773</v>
       </c>
       <c r="U12" t="n">
-        <v>0.001163895888130872</v>
+        <v>0.002183679528145124</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>2.532618009446665e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1735,97 +1735,97 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004302422531058976</v>
+        <v>0.007476851167888655</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7.879256029389625e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.39191700892185e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.0001139678104250999</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>6.612947024666293e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001246811954039932</v>
+        <v>0.004451779656605138</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0002124585107924703</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.954721011021109e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.009820947362117492</v>
+        <v>0.006238682363270285</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.0003967768214799775</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0004277310415954368</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>5.34663801994296e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.0004600922717161442</v>
       </c>
       <c r="P13" t="n">
-        <v>0.006214098495073404</v>
+        <v>0.006213356183175819</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>5.768741021517404e-05</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.001965592977331662</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.0001955743907294925</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.001301484254854536</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>5.62804002099259e-06</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.0001322589404933259</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>0.0008582761032013699</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.007207555803280098</v>
+        <v>0.003503454913067887</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.002372320774620313</v>
+        <v>0.0006767718125243588</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.00117464426704501</v>
+        <v>0.001319775384922762</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -1838,22 +1838,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002470591667549569</v>
+        <v>0.003579433453351287</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.894349025715922e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.597854028339995e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003623739176766304</v>
+        <v>0.003110899121603654</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1862,73 +1862,73 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.006152679186992619</v>
+        <v>0.002804170940459558</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.0001083397704041073</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.0001843183106875073</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>8.442060031488884e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001186928128661167</v>
+        <v>0.001277565084765318</v>
       </c>
       <c r="P14" t="n">
-        <v>0.002444488461615235</v>
+        <v>0.002905475660837424</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.0001730622306455221</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>9.426967035162587e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.0002701459210076443</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.597854028339995e-05</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001208424886489441</v>
+        <v>0.001724994266434229</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-06</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>2.67331900997148e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>0.0006978769626030811</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>4.502432016794072e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.00121456681729752</v>
+        <v>0.0005163726719260701</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -1941,37 +1941,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006825220610477213</v>
+        <v>0.009154007094144446</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.62804002099259e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.954721011021109e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>9.426967035162587e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.0008540550731856255</v>
       </c>
       <c r="G15" t="n">
-        <v>0.009714999055678138</v>
+        <v>0.008806475622848154</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.628040020992589e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0201363201542853</v>
+        <v>0.007029421986219744</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0002588898409656591</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1980,58 +1980,58 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001271379677272246</v>
+        <v>0.003102457061572165</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01159596536565217</v>
+        <v>0.009726660166280442</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>3.939628014694813e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.000496674531852596</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.0008160658030439255</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003470190906564342</v>
+        <v>0.003735611563933831</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>6.894349025715922e-05</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.0003039141611335998</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.0001674341906245295</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>0.0001730622306455221</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.001260631298358108</v>
+        <v>0.003195319721918543</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.0009201845434322883</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.001226850678913677</v>
+        <v>0.0001575851205877925</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.001243740988635892</v>
+        <v>0.001398567945216658</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2044,82 +2044,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003579210178407735</v>
+        <v>0.002982861211126072</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00376039713724605</v>
+        <v>0.006954850455941592</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008882767431183504</v>
+        <v>0.004344846896206279</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001265237746464167</v>
+        <v>0.004501025006788823</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006197208185351188</v>
+        <v>0.001529419875704736</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.00156459512583594</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004758460893558803</v>
+        <v>0.001481581535526299</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.0006627017124718774</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00371893910429152</v>
+        <v>0.003814404124227727</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.002553723159525387</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004845983407573922</v>
+        <v>0.006271043593390992</v>
       </c>
       <c r="N16" t="n">
-        <v>0.002409172359468784</v>
+        <v>0.005668843311144786</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001243740988635892</v>
+        <v>0.00536915018002693</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.0001941673807242443</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.001356357645059214</v>
       </c>
       <c r="R16" t="n">
-        <v>0.004979570402649629</v>
+        <v>0.006171145883018374</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01219480361943982</v>
+        <v>0.005573166630787912</v>
       </c>
       <c r="T16" t="n">
-        <v>0.008607916027521992</v>
+        <v>0.006483502104183463</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>5.628040020992589e-05</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.0003067281811440961</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.0004840114418053627</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.0001210028604513407</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.001216102299999539</v>
+        <v>0.001709517156376499</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>0.0007724484928812329</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>0.0002209005708239591</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.0001407010005248147</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.001191534576767226</v>
+        <v>0.0003995908414904738</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.001163895888130872</v>
+        <v>0.0005037095818788368</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.001667306856219055</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001208424886489441</v>
+        <v>0.002124585107924703</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2171,40 +2171,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.001255052924681347</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>9.004864033588144e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.0008962653733430698</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.0002546688109499147</v>
       </c>
       <c r="P17" t="n">
-        <v>0.009659721678405432</v>
+        <v>0.00917370523421792</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>6.190844023091848e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01573409124759505</v>
+        <v>0.006497572204235944</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.376824012595554e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.0001519570805667999</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.0007991816829809477</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2213,31 +2213,31 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2.110515007872221e-05</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1.688412006297777e-05</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>0.0003306473512333146</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>8.723462032538513e-05</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>2.954721011021109e-05</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>0.0003798927014169998</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2250,97 +2250,97 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01328960278597982</v>
+        <v>0.007540166618124821</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6.753648025191107e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.000486825461815859</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001202282955681363</v>
+        <v>0.001013047203778666</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.000257482830960411</v>
       </c>
       <c r="G18" t="n">
-        <v>0.009639760403279176</v>
+        <v>0.005609748890924363</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0002279356208501999</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4.643133017318886e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00732118152322955</v>
+        <v>0.005568945600772167</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.0003967768214799775</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.0002560758209551628</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.0001969814007347406</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.0009567668035687401</v>
       </c>
       <c r="P18" t="n">
-        <v>0.00614807273888656</v>
+        <v>0.007929908389578558</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.331545023616663e-05</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>5.909442022042219e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.0001603991405982888</v>
       </c>
       <c r="T18" t="n">
-        <v>0.001134721716792499</v>
+        <v>0.0009244055734480328</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.002493221729299717</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>0.0002110515007872221</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>6.612947024666293e-05</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.0001843183106875073</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>0.0004474291816689109</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>4.080329015219627e-05</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.001239134540529834</v>
+        <v>0.001335252494980492</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.0006233054323249292</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>0.0002504477809341702</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.001015861223789162</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
@@ -2353,97 +2353,97 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001157753957322794</v>
+        <v>0.001667306856219055</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7.175751026765552e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.001478767515515803</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.67331900997148e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.0002504477809341702</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.002949092971000117</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.798927014169998e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.829113006822592e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00121456681729752</v>
+        <v>0.001800972806717629</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002401494945958686</v>
+        <v>0.003893196684521624</v>
       </c>
       <c r="M19" t="n">
-        <v>0.007929232673229319</v>
+        <v>0.002469302559210499</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.0005937582222147182</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001226850678913677</v>
+        <v>0.0008624971332171143</v>
       </c>
       <c r="P19" t="n">
-        <v>0.001228386161615696</v>
+        <v>0.002604375519714321</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.002476733598357648</v>
+        <v>0.001612433466014377</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.0001744692406507703</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.0009187775334270402</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01816783133029615</v>
+        <v>0.009246869754490824</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.0007499363327972625</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2.110515007872221e-05</v>
       </c>
       <c r="W19" t="n">
-        <v>0.00117464426704501</v>
+        <v>0.0001308519304880777</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>7.879256029389625e-05</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.001282128056186383</v>
+        <v>0.0003179842611860813</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>0.000133665950498574</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>0.0003207982811965776</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>0.003454209562884202</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.001202282955681363</v>
+        <v>9.426967035162587e-05</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.006109685671336069</v>
+        <v>0.003751088673991561</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -2456,97 +2456,97 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004948860748609236</v>
+        <v>0.005577387660803656</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.39191700892185e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003563855351387539</v>
+        <v>0.001937452777226699</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.0001519570805667999</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006006808330300755</v>
+        <v>0.005709646601296981</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004744641549240627</v>
+        <v>0.003431697402800231</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002403030428660706</v>
+        <v>0.0007217961326922996</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001282128056186383</v>
+        <v>0.0002124585107924703</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003712797173483442</v>
+        <v>0.001248017874655107</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01550991077310019</v>
+        <v>0.01324840620941655</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>8.160658030439254e-05</v>
       </c>
       <c r="R20" t="n">
-        <v>0.003603777901640049</v>
+        <v>0.002853416290643243</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.0007865185929337143</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.34663801994296e-05</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.001968406997342158</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>5.628040020992589e-05</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.266309004723333e-05</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.688412006297777e-05</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.0003573805413330294</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>5.62804002099259e-06</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>5.62804002099259e-06</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>0.001408417015253395</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.004778422168685059</v>
+        <v>0.004540421286935771</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-05</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.001260631298358108</v>
+        <v>0.0004460221716636627</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -2559,82 +2559,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.0001027117303831148</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.0006359685223721626</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.0007175751026765551</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.0009300336134690254</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001163895888130872</v>
+        <v>0.001800972806717629</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.0001744692406507703</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.001194551494455677</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.0002785879810391332</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.110515007872221e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0001463290405458073</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.0009483247435372513</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.002186493548155621</v>
       </c>
       <c r="N21" t="n">
-        <v>0.002338540155175882</v>
+        <v>0.0009300336134690254</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.0004994885518630923</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.002317043397347607</v>
+        <v>0.0006176773923039367</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.0009680228836107253</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.001204400564492414</v>
       </c>
       <c r="T21" t="n">
-        <v>0.001148541061110676</v>
+        <v>0.001629317586077355</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>0.0001955743907294925</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>0.0008329499231069032</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>8.442060031488884e-06</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>0.0006753648025191108</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>0.0006922489225820884</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>0.0002504477809341702</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -2643,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.547711005772962e-05</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>0.0009947560737104402</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>8.864163033063328e-05</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.0002729599410181406</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0005037095818788368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001209960369191461</v>
+        <v>0.0003348683812490591</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2695,34 +2695,34 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>8.864163033063328e-05</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.0002448197409131776</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.0001857253206927554</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.251216008397036e-05</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.688412006297777e-05</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>5.205937019418145e-05</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2740,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>3.095422011545924e-05</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-05</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -2765,22 +2765,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0005670250321150033</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00117464426704501</v>
+        <v>0.0001660271806192814</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5.768741021517404e-05</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.331545023616663e-05</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2789,46 +2789,46 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.0003137632311703368</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-06</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.0001674341906245295</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>5.768741021517404e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.0003320543612385627</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.001779867656638906</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.0001969814007347406</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>4.502432016794072e-05</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.110515007872221e-05</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.0001843183106875073</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>2.39191700892185e-05</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-06</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001202282955681363</v>
+        <v>0.0006317474923564181</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>6.331545023616663e-05</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0008315429131016551</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2892,16 +2892,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.0002842160210601258</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>5.62804002099259e-06</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2910,22 +2910,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.000257482830960411</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>3.798927014169998e-05</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.0001547711005772962</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>0.0001561781105825444</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001282128056186383</v>
+        <v>0.002244180958370795</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003717403621589501</v>
+        <v>0.003790484954138509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2995,40 +2995,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001265237746464167</v>
+        <v>0.001550525025783458</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.0004910464918316034</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2.532618009446665e-05</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.0007780765329022254</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>6.331545023616663e-05</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.612947024666293e-05</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.002355430464898098</v>
+        <v>0.003047583671367487</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.0004783834017843701</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>5.205937019418145e-05</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>0.0002546688109499147</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.001020082253804907</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.472246024141477e-05</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.00205845563767804</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -3098,40 +3098,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002461378771337452</v>
+        <v>0.001805193836733373</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.0003911487814589849</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.000429138051600685</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-06</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>0.0003812997114222479</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>0.0002420057209026813</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>4.783834017843701e-05</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>5.62804002099259e-06</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>9.567668035687401e-05</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.0003883347614484887</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.001283663538888403</v>
+        <v>0.0003362753912543072</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.0004418011416479182</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00121456681729752</v>
+        <v>0.001246610864649858</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.002376927222726373</v>
+        <v>0.001028524313836396</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -3216,16 +3216,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>5.487339020467775e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.000143515020535311</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>2.110515007872221e-05</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -3283,58 +3283,58 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.0002560758209551628</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001239134540529834</v>
+        <v>0.0008329499231069032</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.0001013047203778666</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.849070036737031e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0008948583633378217</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>7.316452027290366e-05</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>7.457153027815181e-05</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.814020010496295e-06</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.001782681676649403</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0002012024307504851</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001256024850252049</v>
+        <v>0.00191353360713748</v>
       </c>
       <c r="N28" t="n">
-        <v>0.001260631298358108</v>
+        <v>0.001239575814623618</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.0001519570805667999</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.0001364799705090703</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.0002518547909394184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.0006641087224771255</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.0005473268920415293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3343,19 +3343,19 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>0.0008371709531226477</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.547711005772962e-05</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.0001519570805667999</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>0.0004994885518630923</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-06</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1.547711005772962e-05</v>
       </c>
       <c r="AG28" t="n">
         <v>0</v>
@@ -3386,79 +3386,79 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.939628014694813e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3.939628014694813e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>7.457153027815181e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.0001083397704041073</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0008850092933010847</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="I29" t="n">
-        <v>0.002446023944317255</v>
+        <v>0.0001210028604513407</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.909442022042219e-05</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.001176179749747029</v>
+        <v>0.0009047074333745587</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.0002251216008397036</v>
       </c>
       <c r="O29" t="n">
-        <v>0.001197676507575304</v>
+        <v>0.001246610864649858</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-06</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="S29" t="n">
-        <v>0.004793776995705255</v>
+        <v>0.0007035050026240737</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.0002448197409131776</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.266309004723333e-05</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>0.0001181888404408444</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>5.909442022042219e-05</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>0.0003222052912018257</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>9.849070036737032e-06</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -3467,13 +3467,13 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>0.0003292403412280665</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.001226850678913677</v>
+        <v>0.0004150679515482034</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -3507,49 +3507,49 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>9.849070036737032e-06</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3.095422011545924e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2.110515007872221e-05</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>9.849070036737032e-06</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.688412006297777e-05</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-06</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-05</v>
       </c>
       <c r="T30" t="n">
-        <v>0.002401494945958686</v>
+        <v>0.002413022159000573</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-06</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>2.39191700892185e-05</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3592,25 +3592,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001134721716792499</v>
+        <v>0.0001674341906245295</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.688412006297777e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>8.442060031488884e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>0.001237599057827814</v>
+        <v>0.0002335636608711925</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5.62804002099259e-06</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3619,52 +3619,52 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>3.658226013645183e-05</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>2.67331900997148e-05</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>6.050143022567033e-05</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3.939628014694813e-05</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>4.643133017318886e-05</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.0001702482106350258</v>
       </c>
       <c r="T31" t="n">
-        <v>0.002373856257322333</v>
+        <v>0.0002884370510758702</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>6.612947024666293e-05</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.688412006297777e-05</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>0.0001139678104250999</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>3.236123012070739e-05</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.002376927222726373</v>
+        <v>0.0004699413417528812</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>5.768741021517404e-05</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.407010005248147e-06</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -3695,79 +3695,79 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2.251216008397036e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.0004460221716636627</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001260631298358108</v>
+        <v>9.708369036212217e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.0005515479220572737</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>9.286266034637772e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.0001195958504460925</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.0002588898409656591</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.67331900997148e-05</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>4.783834017843701e-05</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.0001997954207452369</v>
       </c>
       <c r="M32" t="n">
-        <v>0.001243740988635892</v>
+        <v>0.000811844773028181</v>
       </c>
       <c r="N32" t="n">
-        <v>0.001168502336236931</v>
+        <v>0.0003081351911493443</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>0.0005473268920415293</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>5.768741021517404e-05</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>9.286266034637772e-05</v>
       </c>
       <c r="S32" t="n">
-        <v>0.001226850678913677</v>
+        <v>0.0007583783928287514</v>
       </c>
       <c r="T32" t="n">
-        <v>0.003623739176766304</v>
+        <v>0.001239575814623618</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.125608004198518e-05</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>7.035050026240736e-06</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>0.0001477360505510555</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.221030015744442e-05</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>0.0001561781105825444</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>2.39191700892185e-05</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.00121456681729752</v>
+        <v>0.0003700436313802628</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -3779,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.00117464426704501</v>
+        <v>0.0001421080105300629</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>0.0001308519304880777</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
